--- a/LF/TAS/STP/2024/st_lf_tas2_2412_3_fts_result.xlsx
+++ b/LF/TAS/STP/2024/st_lf_tas2_2412_3_fts_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B04BA9-EA57-4346-84A7-83B73245E1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC31669D-78A4-4884-AA01-9D297822280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="263">
   <si>
     <t>type</t>
   </si>
@@ -78,9 +78,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>d_recorderID</t>
-  </si>
-  <si>
     <t>Introduzir o ID do gravador</t>
   </si>
   <si>
@@ -165,22 +162,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>d_generatedid</t>
-  </si>
-  <si>
-    <t>Introduza a segunda parte e a terceira parte do código gerado (tem de ter o formato 1234-567 apenas com números e traços)</t>
-  </si>
-  <si>
-    <t>Por exemplo, se o código gerado foi 123-1234-567, a segunda e terceira partes do código é 123-1234-567</t>
-  </si>
-  <si>
-    <t>Entrer la deuxième partie et la troisième partie du code généré (doit doit avoir le format 123-1234-567 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Par exemple si le code généré était 123-1234-567, le deuxième et troisième partie du code est de 123-1234-567</t>
-  </si>
-  <si>
     <t>d_lotnumber1</t>
   </si>
   <si>
@@ -400,9 +381,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>st_lf_tas2_2412_3_fts_result</t>
-  </si>
-  <si>
     <t>eu_list</t>
   </si>
   <si>
@@ -802,14 +780,44 @@
     <t>eu_list = ${d_eu}</t>
   </si>
   <si>
-    <t>(2024 Dez) 3. TAS2 FL - Resultado FTS</t>
+    <t>d_code_id</t>
+  </si>
+  <si>
+    <t>bind::db_get</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_4</t>
+  </si>
+  <si>
+    <t>st_lf_tas2_2412_3_fts_result_v2</t>
+  </si>
+  <si>
+    <t>(2024 Dez) 3. TAS2 FL - Resultado FTS V2</t>
+  </si>
+  <si>
+    <t>d_recorder</t>
+  </si>
+  <si>
+    <t>Sélectionner le code unique</t>
+  </si>
+  <si>
+    <t>Selecione o código exclusivo</t>
+  </si>
+  <si>
+    <t>regex(., '^\d{2}_\d{3}_\d{1,4}$')</t>
+  </si>
+  <si>
+    <t>Le format du code est incorrect ou ce code n'appartient pas à la localité sélectionner</t>
+  </si>
+  <si>
+    <t>O formato do código está incorreto ou o código não apareceu na seleção do local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -848,6 +856,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1305,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1326,15 +1340,18 @@
     <col min="8" max="8" width="16.875" style="12" customWidth="1"/>
     <col min="9" max="10" width="29.5" style="12" customWidth="1"/>
     <col min="11" max="11" width="49.375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="28.875" style="12" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="12" customWidth="1"/>
     <col min="14" max="14" width="35.375" style="12" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="12" customWidth="1"/>
     <col min="16" max="16" width="36.625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="12"/>
+    <col min="17" max="17" width="11" style="12"/>
+    <col min="18" max="18" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="37.5">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="37.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1386,58 +1403,65 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="63">
+      <c r="R1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="63">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1">
+    <row r="3" spans="1:20" s="11" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="20"/>
@@ -1447,25 +1471,25 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
+    <row r="4" spans="1:20" s="11" customFormat="1">
       <c r="A4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="21" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="20"/>
@@ -1475,27 +1499,27 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="20"/>
@@ -1505,138 +1529,140 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="31.5">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="31.5">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="54" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="63">
-      <c r="A7" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="B7" s="15" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>49</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>51</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="18"/>
+      <c r="H7" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1">
+    <row r="8" spans="1:20" s="11" customFormat="1">
       <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="C8" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="31.5">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="31.5">
       <c r="A9" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1645,25 +1671,25 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1">
+    <row r="10" spans="1:20" s="11" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="14"/>
@@ -1671,29 +1697,29 @@
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="31.5">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="31.5">
       <c r="A11" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="14"/>
@@ -1701,29 +1727,29 @@
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="A12" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="26"/>
@@ -1737,12 +1763,12 @@
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20">
       <c r="A13" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
@@ -1759,12 +1785,12 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="A14" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -1782,6 +1808,7 @@
       <c r="P14" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1807,7 +1834,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1819,2395 +1846,2395 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B149" s="12">
         <v>101</v>
@@ -4219,12 +4246,12 @@
         <v>101</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B150" s="12">
         <v>102</v>
@@ -4236,12 +4263,12 @@
         <v>102</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B151" s="12">
         <v>103</v>
@@ -4253,12 +4280,12 @@
         <v>103</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B152" s="12">
         <v>104</v>
@@ -4270,12 +4297,12 @@
         <v>104</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B153" s="12">
         <v>105</v>
@@ -4287,12 +4314,12 @@
         <v>105</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B154" s="12">
         <v>106</v>
@@ -4304,12 +4331,12 @@
         <v>106</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B155" s="12">
         <v>107</v>
@@ -4321,12 +4348,12 @@
         <v>107</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B156" s="12">
         <v>108</v>
@@ -4338,12 +4365,12 @@
         <v>108</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B157" s="12">
         <v>109</v>
@@ -4355,12 +4382,12 @@
         <v>109</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B158" s="12">
         <v>110</v>
@@ -4372,12 +4399,12 @@
         <v>110</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B159" s="12">
         <v>111</v>
@@ -4389,12 +4416,12 @@
         <v>111</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B160" s="12">
         <v>112</v>
@@ -4406,12 +4433,12 @@
         <v>112</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B161" s="12">
         <v>113</v>
@@ -4423,12 +4450,12 @@
         <v>113</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B162" s="12">
         <v>114</v>
@@ -4440,12 +4467,12 @@
         <v>114</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B163" s="12">
         <v>115</v>
@@ -4457,12 +4484,12 @@
         <v>115</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B164" s="12">
         <v>116</v>
@@ -4474,12 +4501,12 @@
         <v>116</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B165" s="12">
         <v>117</v>
@@ -4491,12 +4518,12 @@
         <v>117</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B166" s="12">
         <v>118</v>
@@ -4508,12 +4535,12 @@
         <v>118</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B167" s="12">
         <v>119</v>
@@ -4525,12 +4552,12 @@
         <v>119</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B168" s="12">
         <v>120</v>
@@ -4542,12 +4569,12 @@
         <v>120</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B169" s="12">
         <v>121</v>
@@ -4559,12 +4586,12 @@
         <v>121</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B170" s="12">
         <v>122</v>
@@ -4576,12 +4603,12 @@
         <v>122</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B171" s="12">
         <v>123</v>
@@ -4593,12 +4620,12 @@
         <v>123</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B172" s="12">
         <v>124</v>
@@ -4610,12 +4637,12 @@
         <v>124</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B173" s="12">
         <v>125</v>
@@ -4627,12 +4654,12 @@
         <v>125</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B174" s="12">
         <v>126</v>
@@ -4644,12 +4671,12 @@
         <v>126</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B175" s="12">
         <v>127</v>
@@ -4661,12 +4688,12 @@
         <v>127</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B176" s="12">
         <v>128</v>
@@ -4678,12 +4705,12 @@
         <v>128</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B177" s="12">
         <v>129</v>
@@ -4695,12 +4722,12 @@
         <v>129</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B178" s="12">
         <v>130</v>
@@ -4712,12 +4739,12 @@
         <v>130</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B179" s="12">
         <v>131</v>
@@ -4729,12 +4756,12 @@
         <v>131</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B180" s="12">
         <v>132</v>
@@ -4746,12 +4773,12 @@
         <v>132</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B181" s="12">
         <v>133</v>
@@ -4763,12 +4790,12 @@
         <v>133</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B182" s="12">
         <v>134</v>
@@ -4780,12 +4807,12 @@
         <v>134</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B183" s="12">
         <v>135</v>
@@ -4797,12 +4824,12 @@
         <v>135</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B184" s="12">
         <v>136</v>
@@ -4814,12 +4841,12 @@
         <v>136</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B185" s="12">
         <v>137</v>
@@ -4831,12 +4858,12 @@
         <v>137</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B186" s="12">
         <v>138</v>
@@ -4848,12 +4875,12 @@
         <v>138</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B187" s="12">
         <v>139</v>
@@ -4865,12 +4892,12 @@
         <v>139</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B188" s="12">
         <v>140</v>
@@ -4882,12 +4909,12 @@
         <v>140</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B189" s="12">
         <v>141</v>
@@ -4899,12 +4926,12 @@
         <v>141</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B190" s="12">
         <v>142</v>
@@ -4916,12 +4943,12 @@
         <v>142</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B191" s="12">
         <v>143</v>
@@ -4933,12 +4960,12 @@
         <v>143</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B192" s="12">
         <v>144</v>
@@ -4950,12 +4977,12 @@
         <v>144</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B193" s="12">
         <v>145</v>
@@ -4967,12 +4994,12 @@
         <v>145</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B194" s="12">
         <v>146</v>
@@ -4984,12 +5011,12 @@
         <v>146</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B195" s="12">
         <v>147</v>
@@ -5001,12 +5028,12 @@
         <v>147</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B196" s="12">
         <v>148</v>
@@ -5018,12 +5045,12 @@
         <v>148</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B197" s="12">
         <v>149</v>
@@ -5035,12 +5062,12 @@
         <v>149</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B198" s="12">
         <v>150</v>
@@ -5052,12 +5079,12 @@
         <v>150</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B199" s="12">
         <v>151</v>
@@ -5069,12 +5096,12 @@
         <v>151</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B200" s="12">
         <v>152</v>
@@ -5086,12 +5113,12 @@
         <v>152</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B201" s="12">
         <v>153</v>
@@ -5103,12 +5130,12 @@
         <v>153</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B202" s="12">
         <v>154</v>
@@ -5120,12 +5147,12 @@
         <v>154</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B203" s="12">
         <v>155</v>
@@ -5137,12 +5164,12 @@
         <v>155</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B204" s="12">
         <v>156</v>
@@ -5154,12 +5181,12 @@
         <v>156</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B205" s="12">
         <v>157</v>
@@ -5171,12 +5198,12 @@
         <v>157</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B206" s="12">
         <v>158</v>
@@ -5188,12 +5215,12 @@
         <v>158</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B207" s="12">
         <v>159</v>
@@ -5205,12 +5232,12 @@
         <v>159</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B208" s="12">
         <v>160</v>
@@ -5222,12 +5249,12 @@
         <v>160</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B209" s="12">
         <v>161</v>
@@ -5239,12 +5266,12 @@
         <v>161</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B210" s="12">
         <v>162</v>
@@ -5256,12 +5283,12 @@
         <v>162</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B211" s="12">
         <v>163</v>
@@ -5273,12 +5300,12 @@
         <v>163</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B212" s="12">
         <v>164</v>
@@ -5290,12 +5317,12 @@
         <v>164</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B213" s="12">
         <v>165</v>
@@ -5307,12 +5334,12 @@
         <v>165</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B214" s="12">
         <v>166</v>
@@ -5324,12 +5351,12 @@
         <v>166</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B215" s="12">
         <v>167</v>
@@ -5341,12 +5368,12 @@
         <v>167</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B216" s="12">
         <v>168</v>
@@ -5358,12 +5385,12 @@
         <v>168</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B217" s="12">
         <v>169</v>
@@ -5375,12 +5402,12 @@
         <v>169</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B218" s="12">
         <v>170</v>
@@ -5392,12 +5419,12 @@
         <v>170</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B219" s="12">
         <v>171</v>
@@ -5409,12 +5436,12 @@
         <v>171</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B220" s="12">
         <v>172</v>
@@ -5426,12 +5453,12 @@
         <v>172</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B221" s="12">
         <v>173</v>
@@ -5443,12 +5470,12 @@
         <v>173</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B222" s="12">
         <v>174</v>
@@ -5460,12 +5487,12 @@
         <v>174</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B223" s="12">
         <v>175</v>
@@ -5477,12 +5504,12 @@
         <v>175</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B224" s="12">
         <v>176</v>
@@ -5494,12 +5521,12 @@
         <v>176</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B225" s="12">
         <v>177</v>
@@ -5511,12 +5538,12 @@
         <v>177</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B226" s="12">
         <v>178</v>
@@ -5528,12 +5555,12 @@
         <v>178</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B227" s="12">
         <v>179</v>
@@ -5545,12 +5572,12 @@
         <v>179</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B228" s="12">
         <v>180</v>
@@ -5562,12 +5589,12 @@
         <v>180</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B229" s="12">
         <v>181</v>
@@ -5579,12 +5606,12 @@
         <v>181</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B230" s="12">
         <v>182</v>
@@ -5596,12 +5623,12 @@
         <v>182</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B231" s="12">
         <v>183</v>
@@ -5613,12 +5640,12 @@
         <v>183</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B232" s="12">
         <v>184</v>
@@ -5630,12 +5657,12 @@
         <v>184</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B233" s="12">
         <v>185</v>
@@ -5647,12 +5674,12 @@
         <v>185</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B234" s="12">
         <v>186</v>
@@ -5664,12 +5691,12 @@
         <v>186</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B235" s="12">
         <v>187</v>
@@ -5681,12 +5708,12 @@
         <v>187</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B236" s="12">
         <v>188</v>
@@ -5698,12 +5725,12 @@
         <v>188</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B237" s="12">
         <v>189</v>
@@ -5715,12 +5742,12 @@
         <v>189</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B238" s="12">
         <v>190</v>
@@ -5732,12 +5759,12 @@
         <v>190</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B239" s="12">
         <v>191</v>
@@ -5749,12 +5776,12 @@
         <v>191</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B240" s="12">
         <v>192</v>
@@ -5766,12 +5793,12 @@
         <v>192</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B241" s="12">
         <v>193</v>
@@ -5783,12 +5810,12 @@
         <v>193</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B242" s="12">
         <v>194</v>
@@ -5800,12 +5827,12 @@
         <v>194</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B243" s="12">
         <v>195</v>
@@ -5817,12 +5844,12 @@
         <v>195</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B244" s="12">
         <v>196</v>
@@ -5834,12 +5861,12 @@
         <v>196</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B245" s="12">
         <v>197</v>
@@ -5851,12 +5878,12 @@
         <v>197</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B246" s="12">
         <v>198</v>
@@ -5868,12 +5895,12 @@
         <v>198</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B247" s="12">
         <v>199</v>
@@ -5885,12 +5912,12 @@
         <v>199</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B248" s="12">
         <v>200</v>
@@ -5902,12 +5929,12 @@
         <v>200</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B249" s="12">
         <v>201</v>
@@ -5919,12 +5946,12 @@
         <v>201</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B250" s="12">
         <v>202</v>
@@ -5936,12 +5963,12 @@
         <v>202</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B251" s="12">
         <v>203</v>
@@ -5953,12 +5980,12 @@
         <v>203</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B252" s="12">
         <v>204</v>
@@ -5970,12 +5997,12 @@
         <v>204</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B253" s="12">
         <v>205</v>
@@ -5987,12 +6014,12 @@
         <v>205</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B254" s="12">
         <v>206</v>
@@ -6004,12 +6031,12 @@
         <v>206</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B255" s="12">
         <v>207</v>
@@ -6021,12 +6048,12 @@
         <v>207</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B256" s="12">
         <v>208</v>
@@ -6038,12 +6065,12 @@
         <v>208</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B257" s="12">
         <v>209</v>
@@ -6055,12 +6082,12 @@
         <v>209</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B258" s="12">
         <v>210</v>
@@ -6072,12 +6099,12 @@
         <v>210</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B259" s="12">
         <v>211</v>
@@ -6089,12 +6116,12 @@
         <v>211</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B260" s="12">
         <v>212</v>
@@ -6106,12 +6133,12 @@
         <v>212</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B261" s="12">
         <v>213</v>
@@ -6123,12 +6150,12 @@
         <v>213</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B262" s="12">
         <v>214</v>
@@ -6140,12 +6167,12 @@
         <v>214</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B263" s="12">
         <v>215</v>
@@ -6157,12 +6184,12 @@
         <v>215</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B264" s="12">
         <v>216</v>
@@ -6174,12 +6201,12 @@
         <v>216</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B265" s="12">
         <v>217</v>
@@ -6191,12 +6218,12 @@
         <v>217</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B266" s="12">
         <v>218</v>
@@ -6208,12 +6235,12 @@
         <v>218</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B267" s="12">
         <v>219</v>
@@ -6225,12 +6252,12 @@
         <v>219</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B268" s="12">
         <v>220</v>
@@ -6242,7 +6269,7 @@
         <v>220</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6258,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6271,18 +6298,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
